--- a/references/Devices/国创设备与耗材统计表20230822.xlsx
+++ b/references/Devices/国创设备与耗材统计表20230822.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denglei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCodeProjects\myWorkspace\4_Senior\RF_automation\references\Devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43244B7-4E10-4731-99E7-1C5C8EE81056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC764666-8C93-48E1-B589-3FDF5C0A0099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25090" yWindow="-110" windowWidth="38620" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备列表" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2206,16 +2197,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2501,24 +2492,24 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.9296875" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" customWidth="1"/>
-    <col min="5" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="39.19921875" customWidth="1"/>
-    <col min="8" max="9" width="6.06640625" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16.34765625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.91015625" customWidth="1"/>
+    <col min="3" max="3" width="18.390625" customWidth="1"/>
+    <col min="4" max="4" width="14.60546875" customWidth="1"/>
+    <col min="5" max="6" width="16.34765625" customWidth="1"/>
+    <col min="7" max="7" width="39.21484375" customWidth="1"/>
+    <col min="8" max="9" width="6.04296875" customWidth="1"/>
+    <col min="10" max="10" width="14.390625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2550,8 +2541,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.65">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
@@ -2580,8 +2571,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.65">
+      <c r="A3" s="15"/>
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -2610,8 +2601,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.65">
+      <c r="A4" s="15"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -2636,8 +2627,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="157.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:10" ht="150" x14ac:dyDescent="0.65">
+      <c r="A5" s="15"/>
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -2664,8 +2655,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="110.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.65">
+      <c r="A6" s="15"/>
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -2694,8 +2685,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="126" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.65">
+      <c r="A7" s="15"/>
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -2724,8 +2715,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.65">
+      <c r="A8" s="15"/>
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -2754,8 +2745,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.65">
+      <c r="A9" s="15"/>
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -2782,8 +2773,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A10" s="15"/>
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -2808,8 +2799,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.65">
+      <c r="A11" s="15"/>
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -2838,8 +2829,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="157.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:10" ht="150" x14ac:dyDescent="0.65">
+      <c r="A12" s="15"/>
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -2868,8 +2859,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="173.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:10" ht="150" x14ac:dyDescent="0.65">
+      <c r="A13" s="15"/>
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -2898,8 +2889,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="126" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.65">
+      <c r="A14" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="2">
@@ -2930,8 +2921,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A15" s="15"/>
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -2958,8 +2949,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A16" s="15"/>
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -2986,8 +2977,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A17" s="15"/>
       <c r="B17" s="2">
         <v>16</v>
       </c>
@@ -3014,8 +3005,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A18" s="15"/>
       <c r="B18" s="2">
         <v>17</v>
       </c>
@@ -3042,8 +3033,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A19" s="15"/>
       <c r="B19" s="2">
         <v>18</v>
       </c>
@@ -3070,8 +3061,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A20" s="15"/>
       <c r="B20" s="2">
         <v>19</v>
       </c>
@@ -3098,8 +3089,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A21" s="15"/>
       <c r="B21" s="2">
         <v>20</v>
       </c>
@@ -3126,8 +3117,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A22" s="15"/>
       <c r="B22" s="2">
         <v>21</v>
       </c>
@@ -3154,8 +3145,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A23" s="15"/>
       <c r="B23" s="2">
         <v>22</v>
       </c>
@@ -3182,8 +3173,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A24" s="15"/>
       <c r="B24" s="2">
         <v>23</v>
       </c>
@@ -3210,8 +3201,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A25" s="15"/>
       <c r="B25" s="2">
         <v>24</v>
       </c>
@@ -3228,8 +3219,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A26" s="15"/>
       <c r="B26" s="2">
         <v>25</v>
       </c>
@@ -3256,8 +3247,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="12"/>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A27" s="15"/>
       <c r="B27" s="2">
         <v>26</v>
       </c>
@@ -3284,8 +3275,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A28" s="15"/>
       <c r="B28" s="2">
         <v>27</v>
       </c>
@@ -3312,8 +3303,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A29" s="15"/>
       <c r="B29" s="2">
         <v>28</v>
       </c>
@@ -3340,8 +3331,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A30" s="15"/>
       <c r="B30" s="2">
         <v>29</v>
       </c>
@@ -3368,8 +3359,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A31" s="15"/>
       <c r="B31" s="2">
         <v>30</v>
       </c>
@@ -3396,8 +3387,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A32" s="15"/>
       <c r="B32" s="2">
         <v>31</v>
       </c>
@@ -3424,8 +3415,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A33" s="15"/>
       <c r="B33" s="2">
         <v>32</v>
       </c>
@@ -3452,8 +3443,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="94.5" x14ac:dyDescent="0.4">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:10" ht="90" x14ac:dyDescent="0.65">
+      <c r="A34" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B34" s="2">
@@ -3484,8 +3475,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A35" s="15"/>
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -3512,8 +3503,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="12"/>
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A36" s="15"/>
       <c r="B36" s="2">
         <v>35</v>
       </c>
@@ -3540,8 +3531,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="12"/>
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A37" s="15"/>
       <c r="B37" s="2">
         <v>36</v>
       </c>
@@ -3568,8 +3559,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A38" s="15"/>
       <c r="B38" s="2">
         <v>37</v>
       </c>
@@ -3596,8 +3587,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A39" s="15"/>
       <c r="B39" s="2">
         <v>38</v>
       </c>
@@ -3624,8 +3615,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A40" s="15"/>
       <c r="B40" s="2">
         <v>39</v>
       </c>
@@ -3652,8 +3643,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A41" s="15"/>
       <c r="B41" s="2">
         <v>40</v>
       </c>
@@ -3680,8 +3671,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="157.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:10" ht="150" x14ac:dyDescent="0.65">
+      <c r="A42" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B42" s="2">
@@ -3712,8 +3703,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="12"/>
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A43" s="15"/>
       <c r="B43" s="2">
         <v>42</v>
       </c>
@@ -3740,8 +3731,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A44" s="12"/>
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A44" s="15"/>
       <c r="B44" s="2">
         <v>43</v>
       </c>
@@ -3768,8 +3759,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="12"/>
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A45" s="15"/>
       <c r="B45" s="2">
         <v>44</v>
       </c>
@@ -3796,8 +3787,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A46" s="15"/>
       <c r="B46" s="2">
         <v>45</v>
       </c>
@@ -3824,8 +3815,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A47" s="12"/>
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A47" s="15"/>
       <c r="B47" s="2">
         <v>46</v>
       </c>
@@ -3852,8 +3843,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A48" s="12"/>
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A48" s="15"/>
       <c r="B48" s="2">
         <v>47</v>
       </c>
@@ -3880,8 +3871,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.65">
+      <c r="A49" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B49" s="2">
@@ -3910,8 +3901,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A50" s="12"/>
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A50" s="15"/>
       <c r="B50" s="2">
         <v>49</v>
       </c>
@@ -3938,8 +3929,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A51" s="12"/>
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A51" s="15"/>
       <c r="B51" s="2">
         <v>50</v>
       </c>
@@ -3966,8 +3957,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A52" s="12"/>
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A52" s="15"/>
       <c r="B52" s="2">
         <v>51</v>
       </c>
@@ -3994,8 +3985,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A53" s="12"/>
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A53" s="15"/>
       <c r="B53" s="2">
         <v>52</v>
       </c>
@@ -4022,8 +4013,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A54" s="12"/>
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A54" s="15"/>
       <c r="B54" s="2">
         <v>53</v>
       </c>
@@ -4050,8 +4041,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A55" s="12"/>
+    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A55" s="15"/>
       <c r="B55" s="2">
         <v>54</v>
       </c>
@@ -4078,8 +4069,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A56" s="12"/>
+    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A56" s="15"/>
       <c r="B56" s="2">
         <v>55</v>
       </c>
@@ -4106,8 +4097,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="12" t="s">
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.65">
+      <c r="A57" s="15" t="s">
         <v>178</v>
       </c>
       <c r="B57" s="2">
@@ -4136,8 +4127,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A58" s="12"/>
+    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A58" s="15"/>
       <c r="B58" s="2">
         <v>57</v>
       </c>
@@ -4164,8 +4155,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A59" s="12"/>
+    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A59" s="15"/>
       <c r="B59" s="2">
         <v>58</v>
       </c>
@@ -4192,8 +4183,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A60" s="12"/>
+    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A60" s="15"/>
       <c r="B60" s="2">
         <v>59</v>
       </c>
@@ -4220,8 +4211,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A61" s="12"/>
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A61" s="15"/>
       <c r="B61" s="2">
         <v>60</v>
       </c>
@@ -4248,8 +4239,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A62" s="12"/>
+    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A62" s="15"/>
       <c r="B62" s="2">
         <v>61</v>
       </c>
@@ -4276,8 +4267,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A63" s="12"/>
+    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A63" s="15"/>
       <c r="B63" s="2">
         <v>62</v>
       </c>
@@ -4304,8 +4295,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:10" ht="75" x14ac:dyDescent="0.65">
+      <c r="A64" s="15" t="s">
         <v>203</v>
       </c>
       <c r="B64" s="2">
@@ -4336,8 +4327,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A65" s="12"/>
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A65" s="15"/>
       <c r="B65" s="2">
         <v>64</v>
       </c>
@@ -4364,8 +4355,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A66" s="12"/>
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A66" s="15"/>
       <c r="B66" s="2">
         <v>65</v>
       </c>
@@ -4392,8 +4383,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A67" s="12"/>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.65">
+      <c r="A67" s="15"/>
       <c r="B67" s="2">
         <v>66</v>
       </c>
@@ -4420,8 +4411,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A68" s="12"/>
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A68" s="15"/>
       <c r="B68" s="2">
         <v>67</v>
       </c>
@@ -4448,8 +4439,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A69" s="12"/>
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A69" s="15"/>
       <c r="B69" s="2">
         <v>68</v>
       </c>
@@ -4476,8 +4467,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A70" s="12"/>
+    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A70" s="15"/>
       <c r="B70" s="2">
         <v>69</v>
       </c>
@@ -4504,8 +4495,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A71" s="12"/>
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A71" s="15"/>
       <c r="B71" s="2">
         <v>70</v>
       </c>
@@ -4532,8 +4523,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.65">
+      <c r="A72" s="15" t="s">
         <v>232</v>
       </c>
       <c r="B72" s="2">
@@ -4560,8 +4551,8 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A73" s="12"/>
+    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.65">
+      <c r="A73" s="15"/>
       <c r="B73" s="2">
         <v>72</v>
       </c>
@@ -4588,8 +4579,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A74" s="12"/>
+    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A74" s="15"/>
       <c r="B74" s="2">
         <v>73</v>
       </c>
@@ -4612,8 +4603,8 @@
       </c>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" ht="126" x14ac:dyDescent="0.4">
-      <c r="A75" s="12" t="s">
+    <row r="75" spans="1:10" ht="120" x14ac:dyDescent="0.65">
+      <c r="A75" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B75" s="2">
@@ -4642,8 +4633,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="63" x14ac:dyDescent="0.4">
-      <c r="A76" s="12"/>
+    <row r="76" spans="1:10" ht="60" x14ac:dyDescent="0.65">
+      <c r="A76" s="15"/>
       <c r="B76" s="2">
         <v>75</v>
       </c>
@@ -4665,11 +4656,11 @@
         <v>15</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A77" s="12"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.65">
+      <c r="A77" s="15"/>
       <c r="B77" s="2">
         <v>76</v>
       </c>
@@ -4693,11 +4684,11 @@
         <v>15</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A78" s="12"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A78" s="15"/>
       <c r="B78" s="2">
         <v>77</v>
       </c>
@@ -4722,8 +4713,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A79" s="12"/>
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.65">
+      <c r="A79" s="15"/>
       <c r="B79" s="2">
         <v>78</v>
       </c>
@@ -4748,8 +4739,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A80" s="12" t="s">
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.65">
+      <c r="A80" s="15" t="s">
         <v>260</v>
       </c>
       <c r="B80" s="2">
@@ -4776,8 +4767,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A81" s="12"/>
+    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.65">
+      <c r="A81" s="15"/>
       <c r="B81" s="2">
         <v>81</v>
       </c>
@@ -4802,8 +4793,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A82" s="12"/>
+    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.65">
+      <c r="A82" s="15"/>
       <c r="B82" s="2">
         <v>82</v>
       </c>
@@ -4855,19 +4846,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="4.9296875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.46484375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="39.19921875" style="10" customWidth="1"/>
-    <col min="7" max="8" width="5.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.91015625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.6484375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.34765625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.4765625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.21484375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="39.21484375" style="10" customWidth="1"/>
+    <col min="7" max="8" width="5.34765625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.6484375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4896,7 +4887,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4923,7 +4914,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4948,7 +4939,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4973,7 +4964,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.65">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5000,7 +4991,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.65">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5027,7 +5018,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5052,7 +5043,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5075,7 +5066,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5100,7 +5091,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5127,7 +5118,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5152,7 +5143,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5177,7 +5168,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5202,7 +5193,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.65">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5227,7 +5218,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.65">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5252,7 +5243,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5279,7 +5270,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.65">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5306,7 +5297,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5333,7 +5324,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5360,7 +5351,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5387,7 +5378,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5414,7 +5405,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5441,7 +5432,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -5468,7 +5459,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5495,7 +5486,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5520,7 +5511,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5545,7 +5536,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5570,7 +5561,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.65">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5595,7 +5586,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5620,7 +5611,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.65">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5645,7 +5636,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.65">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5670,7 +5661,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.65">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5695,7 +5686,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5718,7 +5709,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="63" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.65">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5743,7 +5734,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5768,7 +5759,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5793,7 +5784,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5818,7 +5809,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5843,7 +5834,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5870,7 +5861,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5895,7 +5886,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5920,7 +5911,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="30.5" x14ac:dyDescent="0.65">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5932,7 +5923,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>414</v>
       </c>
       <c r="G42" s="3">
@@ -5945,7 +5936,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5957,7 +5948,7 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="14" t="s">
         <v>422</v>
       </c>
       <c r="G43" s="3">
@@ -5970,7 +5961,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5995,11 +5986,11 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>416</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -6020,11 +6011,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>417</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -6032,7 +6023,7 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>441</v>
       </c>
       <c r="G46" s="3">
@@ -6045,11 +6036,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>416</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -6072,11 +6063,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>417</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -6099,11 +6090,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>416</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -6126,11 +6117,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>417</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -6153,11 +6144,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>417</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -6180,7 +6171,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -6205,7 +6196,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -6230,7 +6221,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="30.5" x14ac:dyDescent="0.65">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -6242,7 +6233,7 @@
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="13" t="s">
         <v>419</v>
       </c>
       <c r="G54" s="3">
@@ -6255,7 +6246,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -6280,7 +6271,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -6305,7 +6296,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -6330,7 +6321,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.65">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -6357,7 +6348,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.65">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -6382,7 +6373,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -6409,7 +6400,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6436,7 +6427,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -6463,7 +6454,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6490,7 +6481,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -6517,7 +6508,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6544,7 +6535,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="189" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="180" x14ac:dyDescent="0.65">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6569,7 +6560,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6594,7 +6585,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -6621,7 +6612,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6648,7 +6639,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.65">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -6673,7 +6664,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="63" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.65">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -6698,7 +6689,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -6723,7 +6714,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6748,7 +6739,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -6773,7 +6764,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6798,7 +6789,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -6827,7 +6818,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6854,7 +6845,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -6877,7 +6868,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -6900,7 +6891,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -6923,7 +6914,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -6948,7 +6939,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.65">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -6975,7 +6966,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -7000,7 +6991,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -7027,7 +7018,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -7052,7 +7043,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -7077,7 +7068,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -7102,7 +7093,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -7127,7 +7118,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -7152,7 +7143,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -7177,7 +7168,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -7202,7 +7193,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -7227,7 +7218,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -7252,7 +7243,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -7277,7 +7268,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -7302,7 +7293,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -7327,7 +7318,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.65">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -7352,7 +7343,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -7377,7 +7368,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -7402,7 +7393,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -7427,7 +7418,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -7452,7 +7443,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -7477,7 +7468,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -7502,7 +7493,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.65">
       <c r="A104" s="3">
         <v>103</v>
       </c>
